--- a/data/inputs/orcamentos/sample_padrao1 - AG 0605 - 103481.xlsx
+++ b/data/inputs/orcamentos/sample_padrao1 - AG 0605 - 103481.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/inputs/orcamentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="11_2B5A8FE7125C5C426140C57430267256DF8CDB53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C868406-BBA6-4AAB-9E2A-AACA20283EBC}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="11_2B5A8FE7125C5C426140C57430267256DF8CDB53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{771345D1-1EEF-484D-931E-69BDD7B105AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>ORÇAMENTO - S392 - NOVO AUTO ATENDIMENTO</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Sul</t>
   </si>
   <si>
-    <t>ITAÚ UNIBANCO S/A - Ag. 605- SANTOS - BOQUEIRÃO - SP</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -175,6 +172,12 @@
   </si>
   <si>
     <t>Parcial</t>
+  </si>
+  <si>
+    <t>ITAÚ UNIBANCO S/A - Ag. 605 - SANTOS - BOQUEIRÃO - SP</t>
+  </si>
+  <si>
+    <t>UPE</t>
   </si>
 </sst>
 </file>
@@ -588,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +604,7 @@
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
@@ -617,7 +620,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -627,7 +630,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -643,7 +646,15 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4">
+        <v>105424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -663,7 +674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -683,7 +694,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -716,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +748,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -798,10 +809,10 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>4</v>
@@ -813,13 +824,13 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>

--- a/data/inputs/orcamentos/sample_padrao1 - AG 0605 - 103481.xlsx
+++ b/data/inputs/orcamentos/sample_padrao1 - AG 0605 - 103481.xlsx
@@ -304,6 +304,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,7 +598,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
